--- a/WebConLibr.xlsx
+++ b/WebConLibr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\SafetyappEducate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\96UIAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>/html/body/div[1]/div[2]/div/section/section/section/div[2]/div[1]/div/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,15 +111,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>beginInput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/html/body/div[1]/div[2]/div/section/section/section/div[1]/div[1]/div[4]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endInput</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -331,6 +323,66 @@
   </si>
   <si>
     <t>@64safety</t>
+  </si>
+  <si>
+    <t>paas按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaaStool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托管按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn-user1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织架构最高层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页应用中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workbench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id='main-content']/section/div[1]/div[3]/table/tbody/tr[1]/td[7]/div/div/a[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id='main-content']/section/div[4]/div/div[2]/div/div/div[1]/div[2]/div[1]/div/ul/ul/li/span[2]/i[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id='paas-app']/div/header/nav/ul[2]/li[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id='x-header-app']/div[2]/div/ul/li[3]/a/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -726,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -739,19 +791,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -759,16 +811,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5">
         <v>12345</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -776,16 +828,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -793,16 +845,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9">
         <v>11111222221234</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -810,16 +862,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -847,9 +899,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -918,24 +972,76 @@
     </row>
     <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="3">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -982,167 +1088,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
